--- a/mythril/0.23.15_smartbugs-curated/acurado.xlsx
+++ b/mythril/0.23.15_smartbugs-curated/acurado.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="8">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.6857142857142857</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="10">
@@ -643,19 +643,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="12">
@@ -687,19 +687,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
   </sheetData>
